--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo-win7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F961AC-B3E4-477D-839C-29D4EE82B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975AC68-61CA-41AB-BF79-8A0E10340104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="362">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1550,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1571,114 +1571,106 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>360</v>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A7" s="3" t="s">
         <v>357</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975AC68-61CA-41AB-BF79-8A0E10340104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C043485-DE5E-4E45-A4A1-01D5CDDD59BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patho_name_fix" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="371">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,9 +48,6 @@
     <t>人副流感病毒2型</t>
   </si>
   <si>
-    <t>人腮腺炎病毒2型（人副流感病毒2型）</t>
-  </si>
-  <si>
     <t>腺病毒4型</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>外源内参</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外源内参 </t>
   </si>
   <si>
     <t>label</t>
@@ -232,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">外源内参 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T3P2-NTC|T2P2-NTC|T3P2-NTC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,6 +1133,54 @@
   </si>
   <si>
     <t>肠道病毒A71型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳性对照品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡他莫拉菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三叶草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人内参ZFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人内参ZFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人内参ACTB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百日咳鲍特菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腺病毒4型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人腮腺炎病毒2型（人副流感病毒2型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸道合胞病毒A型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外源内参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外源内参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +1188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,12 +1208,6 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1249,25 +1281,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,7 +1582,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,15 +1596,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1591,87 +1620,87 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>354</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
+      <c r="A8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>361</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1712,21 +1741,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1734,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1745,76 +1774,76 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1822,21 +1851,21 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1844,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1855,197 +1884,197 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2053,21 +2082,21 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,10 +2104,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,802 +2115,802 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>68</v>
+      <c r="B64" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>69</v>
+        <v>356</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>70</v>
+      <c r="B66" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>71</v>
+      <c r="B67" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>77</v>
+      <c r="B74" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>359</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>78</v>
+        <v>356</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>79</v>
+      <c r="B76" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>80</v>
+      <c r="B77" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>83</v>
+        <v>24</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>86</v>
+        <v>29</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>89</v>
+        <v>34</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>90</v>
+        <v>36</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>117</v>
+        <v>27</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>91</v>
+        <v>7</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>94</v>
+        <v>27</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>97</v>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>359</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>98</v>
+        <v>356</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>99</v>
+      <c r="B97" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>100</v>
+      <c r="B98" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>101</v>
+        <v>6</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>102</v>
+        <v>7</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>103</v>
+        <v>24</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>107</v>
+        <v>30</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>109</v>
+        <v>34</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>38</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>110</v>
+        <v>36</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2900,1888 +2929,1888 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B33" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B35" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B57" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="B60" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="B61" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="B62" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B93" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B93" s="6" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="B96" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="B97" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
+      <c r="B98" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+      <c r="B125" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
+      <c r="B126" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="6" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" s="6" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="6" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="6" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="6" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B138" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="6" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" s="6" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" s="6" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="6" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148" s="6" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" s="6" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B159" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B157" s="6" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" s="6" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="8" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="8" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B172" s="6" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173" s="6" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B174" s="6" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B175" s="6" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B176" s="6" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="8" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="8" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="8" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="8" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="8" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="8" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="8" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="8" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="8" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="8" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="8" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="8" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="8" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="8" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="8" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="8" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="8" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="8" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="8" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="8" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="8" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="8" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="8" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B208" s="6" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B209" s="6" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B210" s="6" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211" s="6" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B212" s="6" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
+      <c r="B232" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+      <c r="B233" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
+      <c r="B234" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C043485-DE5E-4E45-A4A1-01D5CDDD59BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072F25E-B172-4166-99BD-0571C7E1F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patho_name_fix" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="372">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,6 +1181,10 @@
   </si>
   <si>
     <t>外源内参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人副流感病毒2型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1582,7 +1586,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1621,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>

--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072F25E-B172-4166-99BD-0571C7E1F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01989F-5863-4A00-A009-3C6B39B2CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patho_name_fix" sheetId="1" r:id="rId1"/>
     <sheet name="patho_class" sheetId="2" r:id="rId2"/>
     <sheet name="retro_tagname_fix" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">patho_class!$A$1:$C$152</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="425">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,6 +1188,301 @@
   </si>
   <si>
     <t>人副流感病毒2型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人呼吸道合胞病毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-L08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白念珠菌</t>
+  </si>
+  <si>
+    <t>T2P3-L06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-L02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>肠道病毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>71</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-L07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺炎克雷伯菌</t>
+  </si>
+  <si>
+    <t>T2P3-L03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>呼吸道合胞病毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-L01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-L04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人副流感2型</t>
+  </si>
+  <si>
+    <t>T2P3-L05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-P05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-N01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Jurkat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>T2P3-N02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-N03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-R02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-R03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFL05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFP05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFN01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFN02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFN03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFR02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFR01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2P3-QFR03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标病原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Jurkat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,6 +1541,60 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1285,11 +1637,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,8 +1649,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1596,115 +1981,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1716,10 +2109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7685A8-7BAB-444F-9EF7-786D490EA089}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1730,1191 +2124,1675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
-        <v>15</v>
+      <c r="C108" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2927,1893 +3805,1893 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD529AE-927D-4E28-99ED-B8695CE7E7C7}">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="2" t="s">
         <v>242</v>
       </c>
     </row>

--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\QC_check_report-1.2.5\00_raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73672445-3984-49A8-A2EA-2CAE8562165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70F208-0CDA-4D61-96AA-9CE67D4E295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patho_name_fix" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="465">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +73,6 @@
     <t>T3P3-P02|T3P3-L02|T2P2-P02|T2P2-L02</t>
   </si>
   <si>
-    <t>阳性对照品</t>
-  </si>
-  <si>
-    <t>T3P3-POS|T2P2-POS</t>
-  </si>
-  <si>
     <t>T11A-P01|T11B-P01</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
   </si>
   <si>
     <t>T3P3-QWR02|T2P2-QFR02</t>
-  </si>
-  <si>
-    <t>T3P2-QWP07|T2P2-QFR07</t>
   </si>
   <si>
     <t>T11A-QUP01|T11B-QUP01</t>
@@ -1628,6 +1619,35 @@
   </si>
   <si>
     <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T3P3-POS|T2P2-POS|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T2P3-POS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3P2-QWP07|T2P2-QFR07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳性对照品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡他莫拉菌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1844,25 +1864,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,6 +1890,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2162,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2173,107 +2187,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="20" t="s">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="20" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2286,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7685A8-7BAB-444F-9EF7-786D490EA089}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2302,10 +2316,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>10</v>
@@ -2316,15 +2330,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>460</v>
+      <c r="A3" s="21" t="s">
+        <v>457</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -2334,33 +2348,33 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>461</v>
+      <c r="A4" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>358</v>
+      <c r="A5" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>462</v>
+      <c r="A6" s="24" t="s">
+        <v>459</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>11</v>
@@ -2371,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>11</v>
@@ -2382,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>11</v>
@@ -2393,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>11</v>
@@ -2404,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>11</v>
@@ -2412,10 +2426,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
@@ -2426,51 +2440,51 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>11</v>
@@ -2481,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>11</v>
@@ -2489,10 +2503,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>11</v>
@@ -2503,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>11</v>
@@ -2511,10 +2525,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>11</v>
@@ -2522,10 +2536,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>11</v>
@@ -2533,10 +2547,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>11</v>
@@ -2544,10 +2558,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>11</v>
@@ -2555,10 +2569,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>11</v>
@@ -2566,10 +2580,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>11</v>
@@ -2577,10 +2591,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>11</v>
@@ -2591,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>11</v>
@@ -2599,10 +2613,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>11</v>
@@ -2613,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>11</v>
@@ -2621,10 +2635,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>11</v>
@@ -2632,10 +2646,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>11</v>
@@ -2643,10 +2657,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>11</v>
@@ -2657,51 +2671,51 @@
         <v>2</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="C35" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>11</v>
@@ -2712,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>11</v>
@@ -2720,10 +2734,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>11</v>
@@ -2733,8 +2747,8 @@
       <c r="A40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
+      <c r="B40" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>11</v>
@@ -2742,10 +2756,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>11</v>
@@ -2753,10 +2767,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>11</v>
@@ -2764,10 +2778,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>11</v>
@@ -2775,10 +2789,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>11</v>
@@ -2786,10 +2800,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>11</v>
@@ -2797,10 +2811,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>11</v>
@@ -2811,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>9</v>
@@ -2822,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>6</v>
@@ -2833,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>7</v>
@@ -2844,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>8</v>
@@ -2852,13 +2866,13 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2866,7 +2880,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>9</v>
@@ -2877,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>7</v>
@@ -2885,13 +2899,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>7</v>
@@ -2907,13 +2921,13 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2921,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>6</v>
@@ -2932,7 +2946,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>7</v>
@@ -2943,7 +2957,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>8</v>
@@ -2954,7 +2968,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>9</v>
@@ -2965,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>6</v>
@@ -2976,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>7</v>
@@ -2987,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>8</v>
@@ -2998,7 +3012,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>9</v>
@@ -3009,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>6</v>
@@ -3020,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>7</v>
@@ -3031,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>8</v>
@@ -3042,51 +3056,51 @@
         <v>1</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B69" s="15" t="s">
+      <c r="C70" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B70" s="15" t="s">
+      <c r="C71" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>11</v>
@@ -3097,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>11</v>
@@ -3108,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>11</v>
@@ -3119,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>11</v>
@@ -3130,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>11</v>
@@ -3138,10 +3152,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>11</v>
@@ -3152,51 +3166,51 @@
         <v>2</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B79" s="15" t="s">
+      <c r="C81" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>11</v>
@@ -3207,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>11</v>
@@ -3215,10 +3229,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>11</v>
@@ -3226,10 +3240,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>11</v>
@@ -3237,10 +3251,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>11</v>
@@ -3248,10 +3262,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>11</v>
@@ -3259,10 +3273,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>11</v>
@@ -3270,10 +3284,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>11</v>
@@ -3281,10 +3295,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>11</v>
@@ -3292,10 +3306,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>11</v>
@@ -3303,10 +3317,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>11</v>
@@ -3314,10 +3328,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>11</v>
@@ -3325,10 +3339,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>84</v>
+        <v>463</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>11</v>
@@ -3336,10 +3350,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>11</v>
@@ -3350,7 +3364,7 @@
         <v>23</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>11</v>
@@ -3358,10 +3372,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>11</v>
@@ -3369,32 +3383,32 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>11</v>
@@ -3402,32 +3416,32 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>11</v>
@@ -3435,21 +3449,21 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>20</v>
+      <c r="A105" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>95</v>
+        <v>462</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>11</v>
@@ -3457,10 +3471,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>11</v>
@@ -3471,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>11</v>
@@ -3479,10 +3493,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>11</v>
@@ -3493,7 +3507,7 @@
         <v>26</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>11</v>
@@ -3504,7 +3518,7 @@
         <v>28</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>11</v>
@@ -3515,1495 +3529,1484 @@
         <v>30</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>11</v>
+      <c r="A112" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="C117" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="C118" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="C119" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C120" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="C125" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="C126" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="C127" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="C128" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>410</v>
+      <c r="A131" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B137" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="C138" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B139" s="6" t="s">
+      <c r="C140" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="6" t="s">
+      <c r="C141" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="C142" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B146" s="6" t="s">
+      <c r="C147" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B147" s="6" t="s">
+      <c r="C148" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="C149" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="C150" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C153" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>3</v>
+        <v>457</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>460</v>
+        <v>364</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>409</v>
+      <c r="A156" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B159" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B186" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C186" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B201" s="17" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="19" t="s">
+      <c r="C201" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B158" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C158" s="17" t="s">
+      <c r="B205" s="17" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C159" s="17" t="s">
+      <c r="C205" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B206" s="17" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="19" t="s">
+      <c r="C206" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B219" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="B160" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="19" t="s">
+      <c r="B221" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B161" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
+      <c r="B222" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B162" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B164" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="19" t="s">
+      <c r="B224" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B165" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="19" t="s">
+      <c r="B225" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="B166" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="19" t="s">
+      <c r="B228" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="B167" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C169" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="19" t="s">
+      <c r="B229" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B231" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B233" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="B172" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="19" t="s">
+      <c r="B234" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="B173" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B174" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="19" t="s">
+      <c r="B235" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="B175" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="19" t="s">
+      <c r="B236" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B176" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="19" t="s">
+      <c r="B237" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="B177" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B179" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="19" t="s">
+      <c r="B239" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B180" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
+      <c r="B240" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B241" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="B181" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="19" t="s">
+      <c r="B243" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C182" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C185" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B187" s="18" t="s">
+      <c r="B244" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C187" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B188" s="18" t="s">
+      <c r="C244" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B245" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C188" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C189" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B190" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C192" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C195" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C196" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B198" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B199" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B201" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C201" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C202" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B203" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C203" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B204" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C207" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B209" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C209" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B210" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C210" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B211" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C211" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B212" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C212" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B214" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B215" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B216" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B217" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B218" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B219" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B220" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B221" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B222" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B223" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B224" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C224" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B225" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B229" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C230" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B231" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B232" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B233" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B234" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B235" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B236" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B237" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B238" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C238" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C239" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C241" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C242" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B243" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C243" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B244" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C244" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C245" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C246" s="17" t="s">
-        <v>452</v>
+      <c r="C245" s="11" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -5016,7 +5019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD529AE-927D-4E28-99ED-B8695CE7E7C7}">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
@@ -5028,1882 +5031,1882 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6928,332 +6931,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" t="s">
         <v>447</v>
-      </c>
-      <c r="C19" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" t="s">
         <v>447</v>
-      </c>
-      <c r="C20" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" t="s">
         <v>447</v>
-      </c>
-      <c r="C21" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22" t="s">
         <v>447</v>
-      </c>
-      <c r="C22" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" t="s">
         <v>441</v>
       </c>
-      <c r="B29" t="s">
-        <v>444</v>
-      </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/00_raw_data/config.xlsx
+++ b/00_raw_data/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WWW74\Desktop\Demo_win8\QC_check_report\00_raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70F208-0CDA-4D61-96AA-9CE67D4E295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0EEA2-5808-49F0-A69B-0111670B4549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="495" windowWidth="27540" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patho_name_fix" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="464">
   <si>
     <t>Original_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,10 +1528,6 @@
   </si>
   <si>
     <t>念珠菌属</t>
-  </si>
-  <si>
-    <t>人副流感病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2176,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2280,14 +2276,6 @@
       </c>
       <c r="B12" s="20" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2302,9 +2290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7685A8-7BAB-444F-9EF7-786D490EA089}">
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2316,7 +2304,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>51</v>
@@ -2338,7 +2326,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -2349,7 +2337,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>109</v>
@@ -2371,7 +2359,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>104</v>
@@ -2448,7 +2436,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
@@ -2459,7 +2447,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>15</v>
@@ -2481,7 +2469,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>17</v>
@@ -2679,7 +2667,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>39</v>
@@ -2690,7 +2678,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>40</v>
@@ -2712,7 +2700,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>42</v>
@@ -3064,7 +3052,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>59</v>
@@ -3075,7 +3063,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>60</v>
@@ -3097,7 +3085,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>62</v>
@@ -3174,7 +3162,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>67</v>
@@ -3185,7 +3173,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>68</v>
@@ -3207,7 +3195,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>70</v>
@@ -3240,7 +3228,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>93</v>
@@ -3339,10 +3327,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>11</v>
@@ -3394,7 +3382,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>87</v>
@@ -3405,7 +3393,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>88</v>
@@ -3427,7 +3415,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>90</v>
@@ -3460,10 +3448,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>11</v>
@@ -3559,7 +3547,7 @@
     </row>
     <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>386</v>
@@ -3581,7 +3569,7 @@
     </row>
     <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>388</v>
@@ -3614,7 +3602,7 @@
     </row>
     <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>391</v>
@@ -3647,7 +3635,7 @@
     </row>
     <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>394</v>
@@ -3669,7 +3657,7 @@
     </row>
     <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>396</v>
@@ -3702,7 +3690,7 @@
     </row>
     <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>399</v>
@@ -3757,7 +3745,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>404</v>
@@ -3801,7 +3789,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>362</v>
@@ -3823,7 +3811,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>365</v>
@@ -3856,7 +3844,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>368</v>
@@ -3889,7 +3877,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>371</v>
@@ -3911,7 +3899,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>373</v>
@@ -3944,7 +3932,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>376</v>
@@ -3999,7 +3987,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>382</v>
